--- a/kontakt/contacts.xlsx
+++ b/kontakt/contacts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2ED8B1-5639-4364-BF0C-4C095D62A735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8A6A39-1A97-4CBA-A29B-CF18384FDABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>jméno</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>Obecné</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -947,6 +950,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -986,7 +990,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1294,7 +1297,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A42" sqref="A42:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1309,26 +1312,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
@@ -1879,7 +1882,7 @@
       <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="41" t="s">
         <v>84</v>
       </c>
       <c r="B39" s="23" t="s">
@@ -1894,14 +1897,16 @@
       <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="20"/>
+      <c r="A40" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="B40" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="51"/>
+      <c r="D40" s="52"/>
       <c r="F40" s="17"/>
       <c r="G40" s="18"/>
       <c r="H40" s="19"/>
@@ -1911,21 +1916,21 @@
       <c r="B41" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="53"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43"/>
+      <c r="D41" s="54"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H43" s="2"/>

--- a/kontakt/contacts.xlsx
+++ b/kontakt/contacts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8A6A39-1A97-4CBA-A29B-CF18384FDABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F78AEF-974A-4262-9842-881AF253E245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>jméno</t>
   </si>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t>Obecné</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1294,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:D42"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1897,9 +1894,7 @@
       <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="A40" s="20"/>
       <c r="B40" s="21" t="s">
         <v>37</v>
       </c>
